--- a/__XLSX/Sample01 - PinocchioP.xlsx
+++ b/__XLSX/Sample01 - PinocchioP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\음악퀴즈\맵\Excel_Cutter\__XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DDDB5A-35A3-49D8-BFFE-897DD3C2C392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C930410-541E-4E38-9098-EBCEEB7F64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17820" yWindow="1380" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,7 +1709,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:A27"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1732,7 +1732,7 @@
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>CONCATENATE("총 ", MAX($A$3:$A$9942),"곡")</f>
-        <v>총 15곡</v>
+        <v>총 25곡</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>4</v>
@@ -2444,6 +2444,10 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <f>IF(B18&lt;&gt;"",MAX($A$2:A17)+1,"")</f>
+        <v>16</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2459,6 +2463,12 @@
       <c r="G18" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="H18" s="1">
+        <v>30.45</v>
+      </c>
+      <c r="I18" s="3">
+        <v>83</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>127</v>
       </c>
@@ -2491,6 +2501,10 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <f>IF(B19&lt;&gt;"",MAX($A$2:A18)+1,"")</f>
+        <v>17</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2506,6 +2520,12 @@
       <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="H19" s="1">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I19" s="3">
+        <v>85.5</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>128</v>
       </c>
@@ -2532,6 +2552,10 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <f>IF(B20&lt;&gt;"",MAX($A$2:A19)+1,"")</f>
+        <v>18</v>
+      </c>
       <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
@@ -2547,6 +2571,12 @@
       <c r="G20" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="H20" s="1">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3">
+        <v>89.2</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>129</v>
       </c>
@@ -2561,6 +2591,10 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <f>IF(B21&lt;&gt;"",MAX($A$2:A20)+1,"")</f>
+        <v>19</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2576,6 +2610,12 @@
       <c r="G21" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="H21" s="1">
+        <v>22.05</v>
+      </c>
+      <c r="I21" s="3">
+        <v>82.2</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>130</v>
       </c>
@@ -2584,6 +2624,10 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <f>IF(B22&lt;&gt;"",MAX($A$2:A21)+1,"")</f>
+        <v>20</v>
+      </c>
       <c r="B22" s="11" t="s">
         <v>37</v>
       </c>
@@ -2599,6 +2643,12 @@
       <c r="G22" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="H22" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="I22" s="3">
+        <v>79</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>131</v>
       </c>
@@ -2616,6 +2666,10 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <f>IF(B23&lt;&gt;"",MAX($A$2:A22)+1,"")</f>
+        <v>21</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
@@ -2631,6 +2685,12 @@
       <c r="G23" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="H23" s="1">
+        <v>13.64</v>
+      </c>
+      <c r="I23" s="3">
+        <v>79.8</v>
+      </c>
       <c r="J23" s="2" t="s">
         <v>132</v>
       </c>
@@ -2645,6 +2705,10 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <f>IF(B24&lt;&gt;"",MAX($A$2:A23)+1,"")</f>
+        <v>22</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -2660,6 +2724,12 @@
       <c r="G24" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="H24" s="1">
+        <v>20.95</v>
+      </c>
+      <c r="I24" s="3">
+        <v>85.3</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>133</v>
       </c>
@@ -2677,6 +2747,10 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <f>IF(B25&lt;&gt;"",MAX($A$2:A24)+1,"")</f>
+        <v>23</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -2689,6 +2763,12 @@
       <c r="G25" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="H25" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>89.2</v>
+      </c>
       <c r="J25" s="2" t="s">
         <v>208</v>
       </c>
@@ -2697,6 +2777,10 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <f>IF(B26&lt;&gt;"",MAX($A$2:A25)+1,"")</f>
+        <v>24</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>107</v>
       </c>
@@ -2712,6 +2796,12 @@
       <c r="G26" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="H26" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>94.7</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>134</v>
       </c>
@@ -2726,6 +2816,10 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <f>IF(B27&lt;&gt;"",MAX($A$2:A26)+1,"")</f>
+        <v>25</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
@@ -2740,6 +2834,12 @@
       </c>
       <c r="G27" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="H27" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>76.400000000000006</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>135</v>

--- a/__XLSX/Sample01 - PinocchioP.xlsx
+++ b/__XLSX/Sample01 - PinocchioP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\음악퀴즈\맵\Excel_Cutter\__XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C930410-541E-4E38-9098-EBCEEB7F64CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03333150-0E67-4484-888C-EC744CA75513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="1380" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1800" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{4478CA66-C988-401E-924C-DF3A09D44B1E}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{4478CA66-C988-401E-924C-DF3A09D44B1E}">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="226">
   <si>
     <t>번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -221,10 +221,6 @@
   </si>
   <si>
     <t>Start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1099,6 +1095,33 @@
   <si>
     <t>수록일</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네에 네에 네에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있잖아 있잖아 있잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십년 후 보컬로이드의 노래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래빗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러브 잇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1171,7 +1194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1388,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1405,6 +1441,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,13 +1742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1719,59 +1758,60 @@
     <col min="3" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="10"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="9" style="2"/>
-    <col min="21" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="9" style="3"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="9" style="2"/>
+    <col min="22" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="9" style="3"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>CONCATENATE("총 ", MAX($A$3:$A$9942),"곡")</f>
         <v>총 25곡</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
       <c r="AC1" s="15"/>
+      <c r="AD1" s="16"/>
     </row>
-    <row r="2" spans="1:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1782,10 +1822,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="6" t="s">
@@ -1794,392 +1834,433 @@
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3</v>
+      </c>
+      <c r="N2" s="7">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7">
         <v>7</v>
       </c>
-      <c r="J2" s="6">
+      <c r="R2" s="7">
+        <v>8</v>
+      </c>
+      <c r="S2" s="7">
+        <v>9</v>
+      </c>
+      <c r="T2" s="7">
+        <v>10</v>
+      </c>
+      <c r="U2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="V2" s="7">
         <v>2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="W2" s="7">
         <v>3</v>
       </c>
-      <c r="M2" s="7">
+      <c r="X2" s="7">
         <v>4</v>
       </c>
-      <c r="N2" s="7">
+      <c r="Y2" s="7">
         <v>5</v>
       </c>
-      <c r="O2" s="7">
+      <c r="Z2" s="7">
         <v>6</v>
       </c>
-      <c r="P2" s="7">
+      <c r="AA2" s="7">
         <v>7</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="AB2" s="7">
         <v>8</v>
       </c>
-      <c r="R2" s="7">
+      <c r="AC2" s="7">
         <v>9</v>
       </c>
-      <c r="S2" s="7">
+      <c r="AD2" s="8">
         <v>10</v>
       </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-      <c r="U2" s="7">
-        <v>2</v>
-      </c>
-      <c r="V2" s="7">
-        <v>3</v>
-      </c>
-      <c r="W2" s="7">
-        <v>4</v>
-      </c>
-      <c r="X2" s="7">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <f>IF(B3&lt;&gt;"",MAX($A$2:A2)+1,"")</f>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>82.9</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="3">
+        <f>I3-H3</f>
+        <v>66.5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="U3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>IF(B4&lt;&gt;"",MAX($A$2:A3)+1,"")</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H4" s="1">
         <v>14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>145</v>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J27" si="0">I4-H4</f>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f>IF(B5&lt;&gt;"",MAX($A$2:A4)+1,"")</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="1">
         <v>27.2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>92.5</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T5" s="2" t="s">
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>65.3</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f>IF(B6&lt;&gt;"",MAX($A$2:A5)+1,"")</f>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <v>34.549999999999997</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>92</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>57.45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>IF(B7&lt;&gt;"",MAX($A$2:A6)+1,"")</f>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1">
         <v>26.9</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>83</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>117</v>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>56.1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f>IF(B8&lt;&gt;"",MAX($A$2:A7)+1,"")</f>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>98.6</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T8" s="2" t="s">
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>89.899999999999991</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>157</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f>IF(B9&lt;&gt;"",MAX($A$2:A8)+1,"")</f>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>71</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>52.6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f>IF(B10&lt;&gt;"",MAX($A$2:A9)+1,"")</f>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1">
         <v>35.9</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>135.9</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>162</v>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <f>IF(B11&lt;&gt;"",MAX($A$2:A10)+1,"")</f>
         <v>9</v>
@@ -2188,292 +2269,330 @@
         <v>404</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1">
         <v>21.6</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>90.6</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="1">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <f>IF(B12&lt;&gt;"",MAX($A$2:A11)+1,"")</f>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1">
         <v>20.3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>77.400000000000006</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>163</v>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>57.100000000000009</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <f>IF(B13&lt;&gt;"",MAX($A$2:A12)+1,"")</f>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1">
         <v>6.2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>81.25</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>122</v>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>75.05</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U13" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>164</v>
+      <c r="V13" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <f>IF(B14&lt;&gt;"",MAX($A$2:A13)+1,"")</f>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1">
         <v>26.3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>75.8</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="U14" s="1" t="s">
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="V14" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <f>IF(B15&lt;&gt;"",MAX($A$2:A14)+1,"")</f>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1">
         <v>25.7</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>115.2</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="T15" s="2" t="s">
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>89.5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>172</v>
-      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>IF(B16&lt;&gt;"",MAX($A$2:A15)+1,"")</f>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="1">
         <v>22.8</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>97.1</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>74.3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>178</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <f>IF(B17&lt;&gt;"",MAX($A$2:A16)+1,"")</f>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1">
         <v>14.5</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>77.7</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T17" s="2" t="s">
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>63.2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="U17" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <f>IF(B18&lt;&gt;"",MAX($A$2:A17)+1,"")</f>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1">
         <v>30.45</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>83</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>183</v>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>52.55</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>182</v>
@@ -2481,385 +2600,427 @@
       <c r="M18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="N18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>186</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="Z18" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <f>IF(B19&lt;&gt;"",MAX($A$2:A18)+1,"")</f>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>85.5</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="U19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="W19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <f>IF(B20&lt;&gt;"",MAX($A$2:A19)+1,"")</f>
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="1">
         <v>15</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>89.2</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>74.2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="V20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>199</v>
-      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <f>IF(B21&lt;&gt;"",MAX($A$2:A20)+1,"")</f>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="1">
         <v>22.05</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>82.2</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>200</v>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>60.150000000000006</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <f>IF(B22&lt;&gt;"",MAX($A$2:A21)+1,"")</f>
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1">
         <v>13.6</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>79</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>204</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <f>IF(B23&lt;&gt;"",MAX($A$2:A22)+1,"")</f>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1">
         <v>13.64</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>79.8</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>66.16</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="V23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <f>IF(B24&lt;&gt;"",MAX($A$2:A23)+1,"")</f>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="1">
         <v>20.95</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>85.3</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>64.349999999999994</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="U24" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="V24" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>212</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <f>IF(B25&lt;&gt;"",MAX($A$2:A24)+1,"")</f>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="1">
         <v>23.5</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>89.2</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>34</v>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <f>IF(B26&lt;&gt;"",MAX($A$2:A25)+1,"")</f>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H26" s="1">
         <v>17.8</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>94.7</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" s="1" t="s">
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>76.900000000000006</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="T26" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>215</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <f>IF(B27&lt;&gt;"",MAX($A$2:A26)+1,"")</f>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="1">
         <v>19.8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>76.400000000000006</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L27" s="1" t="s">
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>56.600000000000009</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
